--- a/TestData.xlsx
+++ b/TestData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>Test Name</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Password3</t>
+  </si>
+  <si>
+    <t>LoginTest001</t>
+  </si>
+  <si>
+    <t>loginTest001</t>
+  </si>
+  <si>
+    <t>loginPassword001</t>
   </si>
 </sst>
 </file>
@@ -452,17 +461,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.77734375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.77734375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
@@ -587,6 +596,17 @@
         <v>45</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="F2" r:id="rId1"/>
